--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3219.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3219.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.388046111724037</v>
+        <v>1.613956809043884</v>
       </c>
       <c r="B1">
-        <v>3.501960266068121</v>
+        <v>1.751061201095581</v>
       </c>
       <c r="C1">
-        <v>5.236564328632799</v>
+        <v>2.010695934295654</v>
       </c>
       <c r="D1">
-        <v>2.109305523009395</v>
+        <v>2.501955270767212</v>
       </c>
       <c r="E1">
-        <v>1.250556503742747</v>
+        <v>1.710631132125854</v>
       </c>
     </row>
   </sheetData>
